--- a/Result/check1/2025-04-25.xlsx
+++ b/Result/check1/2025-04-25.xlsx
@@ -798,7 +798,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-516619372.0</t>
+          <t>103776357.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>279467251.0</t>
+          <t>207579291.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>7318639.0</t>
+          <t>29243029.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>218692419.0</t>
+          <t>478075127.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>189662162.0</t>
+          <t>210174885.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>-149526836.0</t>
+          <t>-198747221.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>105830579.0</t>
+          <t>128795724.0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>372822949.0</t>
+          <t>533826465.0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>497321876.0</t>
+          <t>511120034.0</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>430658876.0</t>
+          <t>-139109510.0</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>44602.0</t>
+          <t>22375.0</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>137095.0</t>
+          <t>533724.0</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>-210357.0</t>
+          <t>350599.0</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>78215632.0</t>
+          <t>42039702.0</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>42173516.0</t>
+          <t>-65765893.0</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2819943.0</t>
+          <t>1182222.0</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>1220984757.0</t>
+          <t>2823887276.0</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>563550771.0</t>
+          <t>486244622.0</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>737347.0</t>
+          <t>-210131.0</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>467922290.0</t>
+          <t>-8959536.0</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>16328659.0</t>
+          <t>42525713.0</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>113596834.0</t>
+          <t>85518886.0</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>1537052.0</t>
+          <t>3577784.0</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>26594.0</t>
+          <t>2082.0</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13388.0</t>
+          <t>-17958.0</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2455463685.0</t>
+          <t>2844614228.0</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>1588250503.0</t>
+          <t>1565669629.0</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>817719.0</t>
+          <t>-2600061.0</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>-497353.0</t>
+          <t>-396750.0</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>27950.0</t>
+          <t>19826.0</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>332068115.0</t>
+          <t>-236057547.0</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>20593.0</t>
+          <t>8845.0</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>8425436836.0</t>
+          <t>9844489063.0</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>1715653251.0</t>
+          <t>4183282689.0</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>624135.0</t>
+          <t>287224.0</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>325631780.0</t>
+          <t>78821504.0</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>155530058.0</t>
+          <t>273356732.0</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>8457.0</t>
+          <t>8316.0</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>-61696.0</t>
+          <t>-81772.0</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>3816565907.0</t>
+          <t>4542844860.0</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>223386746.0</t>
+          <t>18265990.0</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>207700.0</t>
+          <t>124999.0</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -10332,7 +10332,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>560539931.0</t>
+          <t>402934774.0</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>930799.0</t>
+          <t>969148.0</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>235948698.0</t>
+          <t>254124219.0</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>70541.0</t>
+          <t>62490.0</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>267723290.0</t>
+          <t>141474056.0</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>7157.0</t>
+          <t>7621.0</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>384643.0</t>
+          <t>148904.0</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>29949173.0</t>
+          <t>17353164.0</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -12148,7 +12148,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>157905.0</t>
+          <t>203981.0</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>126828071.0</t>
+          <t>104377670.0</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>695729.0</t>
+          <t>1036562.0</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>45427.0</t>
+          <t>58432.0</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>209967.0</t>
+          <t>306257.0</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>385020.0</t>
+          <t>433226.0</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>10754.0</t>
+          <t>21262.0</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>967607756.0</t>
+          <t>435322340.0</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
@@ -13964,7 +13964,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>2444610.0</t>
+          <t>2711177.0</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>34734.0</t>
+          <t>62140.0</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
@@ -14418,7 +14418,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>889229.0</t>
+          <t>-637054.0</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -14645,7 +14645,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>70892.0</t>
+          <t>53209.0</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>293062704.0</t>
+          <t>286859966.0</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -15099,7 +15099,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>16797.0</t>
+          <t>2861.0</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -15326,7 +15326,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>189978405.0</t>
+          <t>208317059.0</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>1605226059.0</t>
+          <t>-2121996767.0</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>2051158384.0</t>
+          <t>1260609168.0</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>8845788.0</t>
+          <t>5239313.0</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
@@ -16234,7 +16234,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>224488.0</t>
+          <t>137275.0</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>584169.0</t>
+          <t>424877.0</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>312988286.0</t>
+          <t>212642457.0</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>275738986.0</t>
+          <t>400403693.0</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
@@ -17142,7 +17142,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>237958.0</t>
+          <t>255542.0</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
@@ -17369,7 +17369,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>1673026.0</t>
+          <t>967860.0</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
@@ -17596,7 +17596,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>7372518.0</t>
+          <t>7442629.0</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>661240979.0</t>
+          <t>425443307.0</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>308336923.0</t>
+          <t>448933900.0</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>358147281.0</t>
+          <t>271125261.0</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>-2.68</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>409398958.0</t>
+          <t>733054135.0</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr">
@@ -18731,7 +18731,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>224047.0</t>
+          <t>430584.0</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr">
@@ -18958,7 +18958,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>3203923.0</t>
+          <t>2120866.0</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr">
@@ -19185,7 +19185,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>56784.0</t>
+          <t>72014.0</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>1496.0</t>
+          <t>3458.0</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
@@ -19639,7 +19639,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>200764337.0</t>
+          <t>56714720.0</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr">
@@ -19866,7 +19866,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>-24556049.0</t>
+          <t>214226608.0</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
@@ -20093,7 +20093,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>20926.0</t>
+          <t>36042.0</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr">
@@ -20320,7 +20320,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>190255.0</t>
+          <t>262525.0</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr">
@@ -20547,7 +20547,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>7046460.0</t>
+          <t>1211536.0</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr">
@@ -20774,7 +20774,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>9740268.0</t>
+          <t>9817405.0</t>
         </is>
       </c>
       <c r="AC90" t="inlineStr">
@@ -21001,7 +21001,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>750994126.0</t>
+          <t>2546203677.0</t>
         </is>
       </c>
       <c r="AC91" t="inlineStr">
@@ -21228,7 +21228,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>157051.0</t>
+          <t>-69416.0</t>
         </is>
       </c>
       <c r="AC92" t="inlineStr">
@@ -21455,7 +21455,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>118056.0</t>
+          <t>-67495.0</t>
         </is>
       </c>
       <c r="AC93" t="inlineStr">
@@ -21682,7 +21682,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>294846800.0</t>
+          <t>480322291.0</t>
         </is>
       </c>
       <c r="AC94" t="inlineStr">
@@ -21909,7 +21909,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>319322.0</t>
+          <t>343878.0</t>
         </is>
       </c>
       <c r="AC95" t="inlineStr">
@@ -22136,7 +22136,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>1181817746.0</t>
+          <t>824054061.0</t>
         </is>
       </c>
       <c r="AC96" t="inlineStr">
@@ -22363,7 +22363,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>38641.0</t>
+          <t>38810.0</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr">
@@ -22590,7 +22590,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>2886144.0</t>
+          <t>2005704.0</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
@@ -22817,7 +22817,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>7668.0</t>
+          <t>-4181.0</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
@@ -23044,7 +23044,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>408998123.0</t>
+          <t>759629893.0</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr">
@@ -23271,7 +23271,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>19207711.0</t>
+          <t>11385091.0</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
@@ -23498,7 +23498,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>1104882.0</t>
+          <t>1115335.0</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>93550605.0</t>
+          <t>121258120.0</t>
         </is>
       </c>
       <c r="AC103" t="inlineStr">
@@ -23952,7 +23952,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>-40417975.0</t>
+          <t>-282762296.0</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>-5788378.0</t>
+          <t>-64392419.0</t>
         </is>
       </c>
       <c r="AC105" t="inlineStr">
@@ -24406,7 +24406,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>25050510.0</t>
+          <t>-13960989.0</t>
         </is>
       </c>
       <c r="AC106" t="inlineStr">
@@ -24633,7 +24633,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>14408.0</t>
+          <t>13944.0</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr">
@@ -24860,7 +24860,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>371147.0</t>
+          <t>115623.0</t>
         </is>
       </c>
       <c r="AC108" t="inlineStr">
@@ -25087,7 +25087,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>-472754.0</t>
+          <t>-36043.0</t>
         </is>
       </c>
       <c r="AC109" t="inlineStr">
@@ -25314,7 +25314,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>13832.0</t>
+          <t>-2810.0</t>
         </is>
       </c>
       <c r="AC110" t="inlineStr">
@@ -25541,7 +25541,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>-267595.0</t>
+          <t>-127478.0</t>
         </is>
       </c>
       <c r="AC111" t="inlineStr">
@@ -25768,7 +25768,7 @@
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>6263248.0</t>
+          <t>1913229.0</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr">
@@ -25995,7 +25995,7 @@
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>118382529.0</t>
+          <t>26890210.0</t>
         </is>
       </c>
       <c r="AC113" t="inlineStr">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>22610.0</t>
+          <t>-5918.0</t>
         </is>
       </c>
       <c r="AC114" t="inlineStr">
@@ -26449,7 +26449,7 @@
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>159310.0</t>
+          <t>135919.0</t>
         </is>
       </c>
       <c r="AC115" t="inlineStr">
@@ -26676,7 +26676,7 @@
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>350226.0</t>
+          <t>419925.0</t>
         </is>
       </c>
       <c r="AC116" t="inlineStr">
@@ -26903,7 +26903,7 @@
       </c>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>-19744894.0</t>
+          <t>345581906.0</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr">
@@ -27130,7 +27130,7 @@
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>45242.0</t>
+          <t>14390.0</t>
         </is>
       </c>
       <c r="AC118" t="inlineStr">
@@ -27357,7 +27357,7 @@
       </c>
       <c r="AB119" t="inlineStr">
         <is>
-          <t>-399593.0</t>
+          <t>-1100129.0</t>
         </is>
       </c>
       <c r="AC119" t="inlineStr">
@@ -27584,7 +27584,7 @@
       </c>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>459360157.0</t>
+          <t>338844856.0</t>
         </is>
       </c>
       <c r="AC120" t="inlineStr">
@@ -27811,7 +27811,7 @@
       </c>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>2831557230.0</t>
+          <t>409156535.0</t>
         </is>
       </c>
       <c r="AC121" t="inlineStr">
@@ -28038,7 +28038,7 @@
       </c>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>1471466.0</t>
+          <t>953809.0</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr">
@@ -28265,7 +28265,7 @@
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>224254951.0</t>
+          <t>631438518.0</t>
         </is>
       </c>
       <c r="AC123" t="inlineStr">
@@ -28492,7 +28492,7 @@
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>82338081.0</t>
+          <t>-69779034.0</t>
         </is>
       </c>
       <c r="AC124" t="inlineStr">
@@ -28719,7 +28719,7 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>674.0</t>
+          <t>-104.0</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr">
@@ -28946,7 +28946,7 @@
       </c>
       <c r="AB126" t="inlineStr">
         <is>
-          <t>21085.0</t>
+          <t>23641.0</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr">
@@ -29173,7 +29173,7 @@
       </c>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>542813.0</t>
+          <t>274736.0</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr">
@@ -29400,7 +29400,7 @@
       </c>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>2211031.0</t>
+          <t>2676733.0</t>
         </is>
       </c>
       <c r="AC128" t="inlineStr">
@@ -29627,7 +29627,7 @@
       </c>
       <c r="AB129" t="inlineStr">
         <is>
-          <t>223235.0</t>
+          <t>294287.0</t>
         </is>
       </c>
       <c r="AC129" t="inlineStr">
@@ -29854,7 +29854,7 @@
       </c>
       <c r="AB130" t="inlineStr">
         <is>
-          <t>2070470.0</t>
+          <t>-1559771.0</t>
         </is>
       </c>
       <c r="AC130" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>7226534.0</t>
+          <t>-3790199.0</t>
         </is>
       </c>
       <c r="AC131" t="inlineStr">
@@ -30308,7 +30308,7 @@
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>326482578.0</t>
+          <t>-154556949.0</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr">
@@ -30535,7 +30535,7 @@
       </c>
       <c r="AB133" t="inlineStr">
         <is>
-          <t>79182994.0</t>
+          <t>-92417912.0</t>
         </is>
       </c>
       <c r="AC133" t="inlineStr">
@@ -30762,7 +30762,7 @@
       </c>
       <c r="AB134" t="inlineStr">
         <is>
-          <t>385298475.0</t>
+          <t>128184645.0</t>
         </is>
       </c>
       <c r="AC134" t="inlineStr">
@@ -30989,7 +30989,7 @@
       </c>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>654539900.0</t>
+          <t>-1910130653.0</t>
         </is>
       </c>
       <c r="AC135" t="inlineStr">
@@ -31216,7 +31216,7 @@
       </c>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>2062870096.0</t>
+          <t>2530811123.0</t>
         </is>
       </c>
       <c r="AC136" t="inlineStr">
@@ -31443,7 +31443,7 @@
       </c>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>-58615.0</t>
+          <t>233482.0</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr">
@@ -31670,7 +31670,7 @@
       </c>
       <c r="AB138" t="inlineStr">
         <is>
-          <t>328292933.0</t>
+          <t>645546339.0</t>
         </is>
       </c>
       <c r="AC138" t="inlineStr">
@@ -31897,7 +31897,7 @@
       </c>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>94972.0</t>
+          <t>86211.0</t>
         </is>
       </c>
       <c r="AC139" t="inlineStr">
@@ -32124,7 +32124,7 @@
       </c>
       <c r="AB140" t="inlineStr">
         <is>
-          <t>2023121.0</t>
+          <t>4232825.0</t>
         </is>
       </c>
       <c r="AC140" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>80427596.0</t>
+          <t>-218579287.0</t>
         </is>
       </c>
       <c r="AC141" t="inlineStr">
@@ -32578,7 +32578,7 @@
       </c>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>693172979.0</t>
+          <t>1895481868.0</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr">
@@ -32805,7 +32805,7 @@
       </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>49940.0</t>
+          <t>110993.0</t>
         </is>
       </c>
       <c r="AC143" t="inlineStr">
@@ -33032,7 +33032,7 @@
       </c>
       <c r="AB144" t="inlineStr">
         <is>
-          <t>347973.0</t>
+          <t>-150946.0</t>
         </is>
       </c>
       <c r="AC144" t="inlineStr">
@@ -33259,7 +33259,7 @@
       </c>
       <c r="AB145" t="inlineStr">
         <is>
-          <t>202708699.0</t>
+          <t>228480679.0</t>
         </is>
       </c>
       <c r="AC145" t="inlineStr">
@@ -33486,7 +33486,7 @@
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>1783554922.0</t>
+          <t>1173968066.0</t>
         </is>
       </c>
       <c r="AC146" t="inlineStr">
@@ -33713,7 +33713,7 @@
       </c>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>718495402.0</t>
+          <t>822025386.0</t>
         </is>
       </c>
       <c r="AC147" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="AB148" t="inlineStr">
         <is>
-          <t>274308009.0</t>
+          <t>274659564.0</t>
         </is>
       </c>
       <c r="AC148" t="inlineStr">
@@ -34167,7 +34167,7 @@
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>237749796.0</t>
+          <t>410460573.0</t>
         </is>
       </c>
       <c r="AC149" t="inlineStr">
@@ -34394,7 +34394,7 @@
       </c>
       <c r="AB150" t="inlineStr">
         <is>
-          <t>199134780.0</t>
+          <t>218651098.0</t>
         </is>
       </c>
       <c r="AC150" t="inlineStr">
@@ -34621,7 +34621,7 @@
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>1443422.0</t>
+          <t>1542983.0</t>
         </is>
       </c>
       <c r="AC151" t="inlineStr">
@@ -34848,7 +34848,7 @@
       </c>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>179610854.0</t>
+          <t>225035805.0</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="AB153" t="inlineStr">
         <is>
-          <t>1983933954.0</t>
+          <t>-1918781025.0</t>
         </is>
       </c>
       <c r="AC153" t="inlineStr">
@@ -35302,7 +35302,7 @@
       </c>
       <c r="AB154" t="inlineStr">
         <is>
-          <t>1085745.0</t>
+          <t>991493.0</t>
         </is>
       </c>
       <c r="AC154" t="inlineStr">
@@ -35529,7 +35529,7 @@
       </c>
       <c r="AB155" t="inlineStr">
         <is>
-          <t>39255.0</t>
+          <t>-29805.0</t>
         </is>
       </c>
       <c r="AC155" t="inlineStr">
@@ -35756,7 +35756,7 @@
       </c>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>-29465432.0</t>
+          <t>85531518.0</t>
         </is>
       </c>
       <c r="AC156" t="inlineStr">
@@ -35983,7 +35983,7 @@
       </c>
       <c r="AB157" t="inlineStr">
         <is>
-          <t>459077793.0</t>
+          <t>603610128.0</t>
         </is>
       </c>
       <c r="AC157" t="inlineStr">
@@ -36210,7 +36210,7 @@
       </c>
       <c r="AB158" t="inlineStr">
         <is>
-          <t>307696.0</t>
+          <t>-819740.0</t>
         </is>
       </c>
       <c r="AC158" t="inlineStr">
@@ -36437,7 +36437,7 @@
       </c>
       <c r="AB159" t="inlineStr">
         <is>
-          <t>209805.0</t>
+          <t>107258.0</t>
         </is>
       </c>
       <c r="AC159" t="inlineStr">
@@ -36664,7 +36664,7 @@
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>7447681574.0</t>
+          <t>8421198227.0</t>
         </is>
       </c>
       <c r="AC160" t="inlineStr">
@@ -36891,7 +36891,7 @@
       </c>
       <c r="AB161" t="inlineStr">
         <is>
-          <t>-246815.0</t>
+          <t>-202831.0</t>
         </is>
       </c>
       <c r="AC161" t="inlineStr">
@@ -37118,7 +37118,7 @@
       </c>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>15707516005.0</t>
+          <t>4338137125.0</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr">
@@ -37345,7 +37345,7 @@
       </c>
       <c r="AB163" t="inlineStr">
         <is>
-          <t>1803034668.0</t>
+          <t>664536931.0</t>
         </is>
       </c>
       <c r="AC163" t="inlineStr">
@@ -37572,7 +37572,7 @@
       </c>
       <c r="AB164" t="inlineStr">
         <is>
-          <t>43548.0</t>
+          <t>14396.0</t>
         </is>
       </c>
       <c r="AC164" t="inlineStr">
@@ -37799,7 +37799,7 @@
       </c>
       <c r="AB165" t="inlineStr">
         <is>
-          <t>110694128.0</t>
+          <t>-12176556.0</t>
         </is>
       </c>
       <c r="AC165" t="inlineStr">
@@ -38026,7 +38026,7 @@
       </c>
       <c r="AB166" t="inlineStr">
         <is>
-          <t>1372163.0</t>
+          <t>1487677.0</t>
         </is>
       </c>
       <c r="AC166" t="inlineStr">
@@ -38253,7 +38253,7 @@
       </c>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>125125.0</t>
+          <t>134849.0</t>
         </is>
       </c>
       <c r="AC167" t="inlineStr">
@@ -38480,7 +38480,7 @@
       </c>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>2761974385.0</t>
+          <t>811548750.0</t>
         </is>
       </c>
       <c r="AC168" t="inlineStr">
@@ -38707,7 +38707,7 @@
       </c>
       <c r="AB169" t="inlineStr">
         <is>
-          <t>45454.0</t>
+          <t>58541.0</t>
         </is>
       </c>
       <c r="AC169" t="inlineStr">
@@ -38934,7 +38934,7 @@
       </c>
       <c r="AB170" t="inlineStr">
         <is>
-          <t>367487.0</t>
+          <t>521259.0</t>
         </is>
       </c>
       <c r="AC170" t="inlineStr">
@@ -39161,7 +39161,7 @@
       </c>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>57796072.0</t>
+          <t>103002869.0</t>
         </is>
       </c>
       <c r="AC171" t="inlineStr">
@@ -39388,7 +39388,7 @@
       </c>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>6569307675.0</t>
+          <t>5228680930.0</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr">
@@ -39615,7 +39615,7 @@
       </c>
       <c r="AB173" t="inlineStr">
         <is>
-          <t>1866596.0</t>
+          <t>2320704.0</t>
         </is>
       </c>
       <c r="AC173" t="inlineStr">
@@ -39842,7 +39842,7 @@
       </c>
       <c r="AB174" t="inlineStr">
         <is>
-          <t>3080887793.0</t>
+          <t>2123057739.0</t>
         </is>
       </c>
       <c r="AC174" t="inlineStr">
@@ -40069,7 +40069,7 @@
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>183654685.0</t>
+          <t>112505845.0</t>
         </is>
       </c>
       <c r="AC175" t="inlineStr">
@@ -40296,7 +40296,7 @@
       </c>
       <c r="AB176" t="inlineStr">
         <is>
-          <t>35435.0</t>
+          <t>60386.0</t>
         </is>
       </c>
       <c r="AC176" t="inlineStr">
@@ -40523,7 +40523,7 @@
       </c>
       <c r="AB177" t="inlineStr">
         <is>
-          <t>8949.0</t>
+          <t>7484.0</t>
         </is>
       </c>
       <c r="AC177" t="inlineStr">
@@ -40750,7 +40750,7 @@
       </c>
       <c r="AB178" t="inlineStr">
         <is>
-          <t>3090224.0</t>
+          <t>2078220.0</t>
         </is>
       </c>
       <c r="AC178" t="inlineStr">
@@ -40977,7 +40977,7 @@
       </c>
       <c r="AB179" t="inlineStr">
         <is>
-          <t>6400322344.0</t>
+          <t>-9031652065.0</t>
         </is>
       </c>
       <c r="AC179" t="inlineStr">
@@ -41204,7 +41204,7 @@
       </c>
       <c r="AB180" t="inlineStr">
         <is>
-          <t>119576999.0</t>
+          <t>83577435.0</t>
         </is>
       </c>
       <c r="AC180" t="inlineStr">
@@ -41431,7 +41431,7 @@
       </c>
       <c r="AB181" t="inlineStr">
         <is>
-          <t>1888146571.0</t>
+          <t>-215012027.0</t>
         </is>
       </c>
       <c r="AC181" t="inlineStr">
@@ -41598,27 +41598,27 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>-9.33</t>
+          <t>-9.05</t>
         </is>
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t>-13.34</t>
+          <t>-13.18</t>
         </is>
       </c>
       <c r="U182" t="inlineStr">
@@ -41885,7 +41885,7 @@
       </c>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>27980987.0</t>
+          <t>53397864.0</t>
         </is>
       </c>
       <c r="AC183" t="inlineStr">
@@ -42112,7 +42112,7 @@
       </c>
       <c r="AB184" t="inlineStr">
         <is>
-          <t>5390790326.0</t>
+          <t>7410882406.0</t>
         </is>
       </c>
       <c r="AC184" t="inlineStr">
@@ -42339,7 +42339,7 @@
       </c>
       <c r="AB185" t="inlineStr">
         <is>
-          <t>428680.0</t>
+          <t>-314057.0</t>
         </is>
       </c>
       <c r="AC185" t="inlineStr">
@@ -42566,7 +42566,7 @@
       </c>
       <c r="AB186" t="inlineStr">
         <is>
-          <t>173882.0</t>
+          <t>-11390.0</t>
         </is>
       </c>
       <c r="AC186" t="inlineStr">
@@ -42793,7 +42793,7 @@
       </c>
       <c r="AB187" t="inlineStr">
         <is>
-          <t>382738013.0</t>
+          <t>353377737.0</t>
         </is>
       </c>
       <c r="AC187" t="inlineStr">
@@ -43020,7 +43020,7 @@
       </c>
       <c r="AB188" t="inlineStr">
         <is>
-          <t>95239.0</t>
+          <t>84666.0</t>
         </is>
       </c>
       <c r="AC188" t="inlineStr">
@@ -43247,7 +43247,7 @@
       </c>
       <c r="AB189" t="inlineStr">
         <is>
-          <t>8116551.0</t>
+          <t>10152386.0</t>
         </is>
       </c>
       <c r="AC189" t="inlineStr">
@@ -43474,7 +43474,7 @@
       </c>
       <c r="AB190" t="inlineStr">
         <is>
-          <t>124523.0</t>
+          <t>-16145.0</t>
         </is>
       </c>
       <c r="AC190" t="inlineStr">
@@ -43701,7 +43701,7 @@
       </c>
       <c r="AB191" t="inlineStr">
         <is>
-          <t>393223.0</t>
+          <t>-429964.0</t>
         </is>
       </c>
       <c r="AC191" t="inlineStr">
@@ -43928,7 +43928,7 @@
       </c>
       <c r="AB192" t="inlineStr">
         <is>
-          <t>484712.0</t>
+          <t>226783.0</t>
         </is>
       </c>
       <c r="AC192" t="inlineStr">
@@ -44155,7 +44155,7 @@
       </c>
       <c r="AB193" t="inlineStr">
         <is>
-          <t>27655.0</t>
+          <t>-14380.0</t>
         </is>
       </c>
       <c r="AC193" t="inlineStr">
@@ -44382,7 +44382,7 @@
       </c>
       <c r="AB194" t="inlineStr">
         <is>
-          <t>2614451.0</t>
+          <t>2766757.0</t>
         </is>
       </c>
       <c r="AC194" t="inlineStr">
@@ -44609,7 +44609,7 @@
       </c>
       <c r="AB195" t="inlineStr">
         <is>
-          <t>130822529.0</t>
+          <t>72117480.0</t>
         </is>
       </c>
       <c r="AC195" t="inlineStr">
@@ -44836,7 +44836,7 @@
       </c>
       <c r="AB196" t="inlineStr">
         <is>
-          <t>736732973.0</t>
+          <t>1103813904.0</t>
         </is>
       </c>
       <c r="AC196" t="inlineStr">
@@ -45063,7 +45063,7 @@
       </c>
       <c r="AB197" t="inlineStr">
         <is>
-          <t>160258468.0</t>
+          <t>275760151.0</t>
         </is>
       </c>
       <c r="AC197" t="inlineStr">
@@ -45290,7 +45290,7 @@
       </c>
       <c r="AB198" t="inlineStr">
         <is>
-          <t>9254353.0</t>
+          <t>23957485.0</t>
         </is>
       </c>
       <c r="AC198" t="inlineStr">
@@ -45517,7 +45517,7 @@
       </c>
       <c r="AB199" t="inlineStr">
         <is>
-          <t>691856.0</t>
+          <t>794654.0</t>
         </is>
       </c>
       <c r="AC199" t="inlineStr">
@@ -45744,7 +45744,7 @@
       </c>
       <c r="AB200" t="inlineStr">
         <is>
-          <t>-540334485.0</t>
+          <t>-320899263.0</t>
         </is>
       </c>
       <c r="AC200" t="inlineStr">
@@ -45971,7 +45971,7 @@
       </c>
       <c r="AB201" t="inlineStr">
         <is>
-          <t>5191407.0</t>
+          <t>13076695.0</t>
         </is>
       </c>
       <c r="AC201" t="inlineStr">
@@ -46198,7 +46198,7 @@
       </c>
       <c r="AB202" t="inlineStr">
         <is>
-          <t>2979873.0</t>
+          <t>2012599.0</t>
         </is>
       </c>
       <c r="AC202" t="inlineStr">
@@ -46425,7 +46425,7 @@
       </c>
       <c r="AB203" t="inlineStr">
         <is>
-          <t>-282619.0</t>
+          <t>-1478649.0</t>
         </is>
       </c>
       <c r="AC203" t="inlineStr">
@@ -46652,7 +46652,7 @@
       </c>
       <c r="AB204" t="inlineStr">
         <is>
-          <t>246750720.0</t>
+          <t>288295935.0</t>
         </is>
       </c>
       <c r="AC204" t="inlineStr">
@@ -46879,7 +46879,7 @@
       </c>
       <c r="AB205" t="inlineStr">
         <is>
-          <t>96720891.0</t>
+          <t>-18912749.0</t>
         </is>
       </c>
       <c r="AC205" t="inlineStr">
@@ -47106,7 +47106,7 @@
       </c>
       <c r="AB206" t="inlineStr">
         <is>
-          <t>574688481.0</t>
+          <t>913237332.0</t>
         </is>
       </c>
       <c r="AC206" t="inlineStr">
@@ -47333,7 +47333,7 @@
       </c>
       <c r="AB207" t="inlineStr">
         <is>
-          <t>8808511.0</t>
+          <t>12434915.0</t>
         </is>
       </c>
       <c r="AC207" t="inlineStr">
@@ -47560,7 +47560,7 @@
       </c>
       <c r="AB208" t="inlineStr">
         <is>
-          <t>13049067.0</t>
+          <t>13363867.0</t>
         </is>
       </c>
       <c r="AC208" t="inlineStr">
@@ -47787,7 +47787,7 @@
       </c>
       <c r="AB209" t="inlineStr">
         <is>
-          <t>91740664.0</t>
+          <t>35514477.0</t>
         </is>
       </c>
       <c r="AC209" t="inlineStr">
@@ -48014,7 +48014,7 @@
       </c>
       <c r="AB210" t="inlineStr">
         <is>
-          <t>832516070.0</t>
+          <t>773635027.0</t>
         </is>
       </c>
       <c r="AC210" t="inlineStr">
@@ -48241,7 +48241,7 @@
       </c>
       <c r="AB211" t="inlineStr">
         <is>
-          <t>20573815.0</t>
+          <t>-369869.0</t>
         </is>
       </c>
       <c r="AC211" t="inlineStr">
@@ -48468,7 +48468,7 @@
       </c>
       <c r="AB212" t="inlineStr">
         <is>
-          <t>31150323.0</t>
+          <t>39650074.0</t>
         </is>
       </c>
       <c r="AC212" t="inlineStr">
@@ -48695,7 +48695,7 @@
       </c>
       <c r="AB213" t="inlineStr">
         <is>
-          <t>4231174006.0</t>
+          <t>3167543979.0</t>
         </is>
       </c>
       <c r="AC213" t="inlineStr">
@@ -48922,7 +48922,7 @@
       </c>
       <c r="AB214" t="inlineStr">
         <is>
-          <t>1467897239.0</t>
+          <t>-2543977824.0</t>
         </is>
       </c>
       <c r="AC214" t="inlineStr">
@@ -49104,12 +49104,12 @@
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>-6.64</t>
+          <t>-6.69</t>
         </is>
       </c>
       <c r="T215" t="inlineStr">
         <is>
-          <t>-7.40</t>
+          <t>-7.45</t>
         </is>
       </c>
       <c r="U215" t="inlineStr">
@@ -49149,7 +49149,7 @@
       </c>
       <c r="AB215" t="inlineStr">
         <is>
-          <t>114232124.0</t>
+          <t>-142876827.0</t>
         </is>
       </c>
       <c r="AC215" t="inlineStr">
@@ -49376,7 +49376,7 @@
       </c>
       <c r="AB216" t="inlineStr">
         <is>
-          <t>6239853480.0</t>
+          <t>5074535378.0</t>
         </is>
       </c>
       <c r="AC216" t="inlineStr">
@@ -49603,7 +49603,7 @@
       </c>
       <c r="AB217" t="inlineStr">
         <is>
-          <t>45785056.0</t>
+          <t>51545057.0</t>
         </is>
       </c>
       <c r="AC217" t="inlineStr">
@@ -49830,7 +49830,7 @@
       </c>
       <c r="AB218" t="inlineStr">
         <is>
-          <t>39965826.0</t>
+          <t>9689524.0</t>
         </is>
       </c>
       <c r="AC218" t="inlineStr">
@@ -50057,7 +50057,7 @@
       </c>
       <c r="AB219" t="inlineStr">
         <is>
-          <t>539392664.0</t>
+          <t>-1972487903.0</t>
         </is>
       </c>
       <c r="AC219" t="inlineStr">
@@ -50284,7 +50284,7 @@
       </c>
       <c r="AB220" t="inlineStr">
         <is>
-          <t>7354204450.0</t>
+          <t>5891514014.0</t>
         </is>
       </c>
       <c r="AC220" t="inlineStr">
@@ -50511,7 +50511,7 @@
       </c>
       <c r="AB221" t="inlineStr">
         <is>
-          <t>14700497919.0</t>
+          <t>10403020562.0</t>
         </is>
       </c>
       <c r="AC221" t="inlineStr">
@@ -50738,7 +50738,7 @@
       </c>
       <c r="AB222" t="inlineStr">
         <is>
-          <t>919751235.0</t>
+          <t>989647374.0</t>
         </is>
       </c>
       <c r="AC222" t="inlineStr">
@@ -50965,7 +50965,7 @@
       </c>
       <c r="AB223" t="inlineStr">
         <is>
-          <t>53032262.0</t>
+          <t>49891690.0</t>
         </is>
       </c>
       <c r="AC223" t="inlineStr">
@@ -51192,7 +51192,7 @@
       </c>
       <c r="AB224" t="inlineStr">
         <is>
-          <t>38267413.0</t>
+          <t>-27420456.0</t>
         </is>
       </c>
       <c r="AC224" t="inlineStr">
@@ -51419,7 +51419,7 @@
       </c>
       <c r="AB225" t="inlineStr">
         <is>
-          <t>369778203.0</t>
+          <t>-1819390684.0</t>
         </is>
       </c>
       <c r="AC225" t="inlineStr">
@@ -51646,7 +51646,7 @@
       </c>
       <c r="AB226" t="inlineStr">
         <is>
-          <t>6032867398.0</t>
+          <t>-1486885109.0</t>
         </is>
       </c>
       <c r="AC226" t="inlineStr">
@@ -51873,7 +51873,7 @@
       </c>
       <c r="AB227" t="inlineStr">
         <is>
-          <t>530141168.0</t>
+          <t>253877746.0</t>
         </is>
       </c>
       <c r="AC227" t="inlineStr">
@@ -52100,7 +52100,7 @@
       </c>
       <c r="AB228" t="inlineStr">
         <is>
-          <t>1600004832.0</t>
+          <t>935716768.0</t>
         </is>
       </c>
       <c r="AC228" t="inlineStr">
@@ -52327,7 +52327,7 @@
       </c>
       <c r="AB229" t="inlineStr">
         <is>
-          <t>495761501.0</t>
+          <t>-884393361.0</t>
         </is>
       </c>
       <c r="AC229" t="inlineStr">
@@ -52554,7 +52554,7 @@
       </c>
       <c r="AB230" t="inlineStr">
         <is>
-          <t>1526764054.0</t>
+          <t>1021095695.0</t>
         </is>
       </c>
       <c r="AC230" t="inlineStr">
@@ -52781,7 +52781,7 @@
       </c>
       <c r="AB231" t="inlineStr">
         <is>
-          <t>1599562969.0</t>
+          <t>-1856927438.0</t>
         </is>
       </c>
       <c r="AC231" t="inlineStr">
@@ -53008,7 +53008,7 @@
       </c>
       <c r="AB232" t="inlineStr">
         <is>
-          <t>1046156307.0</t>
+          <t>-3303136492.0</t>
         </is>
       </c>
       <c r="AC232" t="inlineStr">
@@ -53235,7 +53235,7 @@
       </c>
       <c r="AB233" t="inlineStr">
         <is>
-          <t>22414606.0</t>
+          <t>45681368.0</t>
         </is>
       </c>
       <c r="AC233" t="inlineStr">
@@ -53462,7 +53462,7 @@
       </c>
       <c r="AB234" t="inlineStr">
         <is>
-          <t>136961811.0</t>
+          <t>-209057307.0</t>
         </is>
       </c>
       <c r="AC234" t="inlineStr">
@@ -53689,7 +53689,7 @@
       </c>
       <c r="AB235" t="inlineStr">
         <is>
-          <t>39034.0</t>
+          <t>46497.0</t>
         </is>
       </c>
       <c r="AC235" t="inlineStr">
@@ -53916,7 +53916,7 @@
       </c>
       <c r="AB236" t="inlineStr">
         <is>
-          <t>47454.0</t>
+          <t>46575.0</t>
         </is>
       </c>
       <c r="AC236" t="inlineStr">
@@ -54143,7 +54143,7 @@
       </c>
       <c r="AB237" t="inlineStr">
         <is>
-          <t>202440669.0</t>
+          <t>256319126.0</t>
         </is>
       </c>
       <c r="AC237" t="inlineStr">
@@ -54370,7 +54370,7 @@
       </c>
       <c r="AB238" t="inlineStr">
         <is>
-          <t>313359.0</t>
+          <t>311929.0</t>
         </is>
       </c>
       <c r="AC238" t="inlineStr">
@@ -54467,37 +54467,37 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2601</t>
+          <t>2547</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>3969.473</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>7327.389</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>10.26</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -54507,72 +54507,72 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>61</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>9115</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="S239" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T239" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U239" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V239" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="W239" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="X239" t="inlineStr">
@@ -54592,22 +54592,22 @@
       </c>
       <c r="AA239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB239" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>13757834.0</t>
         </is>
       </c>
       <c r="AC239" t="inlineStr">
         <is>
-          <t>益航</t>
+          <t>日勝生</t>
         </is>
       </c>
       <c r="AD239" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AE239" t="inlineStr">
@@ -54617,57 +54617,57 @@
       </c>
       <c r="AF239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="AG239" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AH239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="AI239" t="inlineStr">
         <is>
-          <t>61.93%</t>
+          <t>54.78%</t>
         </is>
       </c>
       <c r="AJ239" t="inlineStr">
         <is>
-          <t>-1.43%</t>
+          <t>17.94%</t>
         </is>
       </c>
       <c r="AK239" t="inlineStr">
         <is>
-          <t>35.35</t>
+          <t>51.73</t>
         </is>
       </c>
       <c r="AL239" t="inlineStr">
         <is>
-          <t>5419</t>
+          <t>15061</t>
         </is>
       </c>
       <c r="AM239" t="inlineStr">
         <is>
-          <t>海運32.66%、租賃21.79%、佣金(百貨-聯營)17.30%、勞務及其他17.21%、百貨-自營10.92%、融資租賃利息收入0.11% (2024年)</t>
+          <t>水處理承攬工程43.44%、百貨13.91%、營建12.97%、其他12.32%、投資性不動產其他租金10.62%、飯店服務4.44%、其他營業租賃-非取決於指數1.17%、投資性不動產-非取決於指數1.04%、其他營業租賃-其他租金0.09% (2024年)</t>
         </is>
       </c>
       <c r="AN239" t="inlineStr">
         <is>
-          <t>益航-貿易百貨-上市</t>
+          <t>日勝生-建材營造-上市</t>
         </is>
       </c>
       <c r="AO239" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AP239" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>14.29</t>
         </is>
       </c>
       <c r="AQ239" t="inlineStr">
@@ -54682,7 +54682,7 @@
       </c>
       <c r="AS239" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 散裝航運** 貿易百貨 - 零售通路</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -54694,17 +54694,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>3969.473</t>
+          <t>4915.297</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -54714,17 +54714,17 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>71.8</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -54734,72 +54734,72 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>9115</t>
+          <t>9780</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S240" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-5.09</t>
         </is>
       </c>
       <c r="T240" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-4.85</t>
         </is>
       </c>
       <c r="U240" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V240" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="W240" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="X240" t="inlineStr">
@@ -54819,17 +54819,17 @@
       </c>
       <c r="AA240" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AB240" t="inlineStr">
         <is>
-          <t>-29747425.0</t>
+          <t>-2531186906.0</t>
         </is>
       </c>
       <c r="AC240" t="inlineStr">
         <is>
-          <t>日勝生</t>
+          <t>皇昌</t>
         </is>
       </c>
       <c r="AD240" t="inlineStr">
@@ -54844,27 +54844,27 @@
       </c>
       <c r="AF240" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="AG240" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="AH240" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="AI240" t="inlineStr">
         <is>
-          <t>54.78%</t>
+          <t>30.74%</t>
         </is>
       </c>
       <c r="AJ240" t="inlineStr">
         <is>
-          <t>17.94%</t>
+          <t>27.25%</t>
         </is>
       </c>
       <c r="AK240" t="inlineStr">
@@ -54874,17 +54874,17 @@
       </c>
       <c r="AL240" t="inlineStr">
         <is>
-          <t>15061</t>
+          <t>35947</t>
         </is>
       </c>
       <c r="AM240" t="inlineStr">
         <is>
-          <t>水處理承攬工程43.44%、百貨13.91%、營建12.97%、其他12.32%、投資性不動產其他租金10.62%、飯店服務4.44%、其他營業租賃-非取決於指數1.17%、投資性不動產-非取決於指數1.04%、其他營業租賃-其他租金0.09% (2024年)</t>
+          <t>營建工程91.73%、混凝土8.16%、租賃0.11% (2024年)</t>
         </is>
       </c>
       <c r="AN240" t="inlineStr">
         <is>
-          <t>日勝生-建材營造-上市</t>
+          <t>皇昌-建材營造-上市</t>
         </is>
       </c>
       <c r="AO240" t="inlineStr">
@@ -54894,7 +54894,7 @@
       </c>
       <c r="AP240" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>16.43</t>
         </is>
       </c>
       <c r="AQ240" t="inlineStr">
@@ -54909,7 +54909,7 @@
       </c>
       <c r="AS240" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 建材營造 - 營造業</t>
         </is>
       </c>
     </row>
@@ -55051,7 +55051,7 @@
       </c>
       <c r="AB241" t="inlineStr">
         <is>
-          <t>187196309.0</t>
+          <t>-134347892.0</t>
         </is>
       </c>
       <c r="AC241" t="inlineStr">
@@ -55278,7 +55278,7 @@
       </c>
       <c r="AB242" t="inlineStr">
         <is>
-          <t>95360741.0</t>
+          <t>295808735.0</t>
         </is>
       </c>
       <c r="AC242" t="inlineStr">
@@ -55505,7 +55505,7 @@
       </c>
       <c r="AB243" t="inlineStr">
         <is>
-          <t>11004037.0</t>
+          <t>-25374268.0</t>
         </is>
       </c>
       <c r="AC243" t="inlineStr">
@@ -55732,7 +55732,7 @@
       </c>
       <c r="AB244" t="inlineStr">
         <is>
-          <t>95915199.0</t>
+          <t>164241052.0</t>
         </is>
       </c>
       <c r="AC244" t="inlineStr">
@@ -55959,7 +55959,7 @@
       </c>
       <c r="AB245" t="inlineStr">
         <is>
-          <t>-42980412.0</t>
+          <t>-445344494.0</t>
         </is>
       </c>
       <c r="AC245" t="inlineStr">
@@ -56186,7 +56186,7 @@
       </c>
       <c r="AB246" t="inlineStr">
         <is>
-          <t>191576802.0</t>
+          <t>-5011781.0</t>
         </is>
       </c>
       <c r="AC246" t="inlineStr">
@@ -56413,7 +56413,7 @@
       </c>
       <c r="AB247" t="inlineStr">
         <is>
-          <t>65327063.0</t>
+          <t>60381837.0</t>
         </is>
       </c>
       <c r="AC247" t="inlineStr">
@@ -56640,7 +56640,7 @@
       </c>
       <c r="AB248" t="inlineStr">
         <is>
-          <t>1560686924.0</t>
+          <t>-53870846.0</t>
         </is>
       </c>
       <c r="AC248" t="inlineStr">
@@ -56867,7 +56867,7 @@
       </c>
       <c r="AB249" t="inlineStr">
         <is>
-          <t>7965424.0</t>
+          <t>11343218.0</t>
         </is>
       </c>
       <c r="AC249" t="inlineStr">
@@ -57094,7 +57094,7 @@
       </c>
       <c r="AB250" t="inlineStr">
         <is>
-          <t>387137461.0</t>
+          <t>390830676.0</t>
         </is>
       </c>
       <c r="AC250" t="inlineStr">
@@ -57321,7 +57321,7 @@
       </c>
       <c r="AB251" t="inlineStr">
         <is>
-          <t>1364915072.0</t>
+          <t>3443178681.0</t>
         </is>
       </c>
       <c r="AC251" t="inlineStr">
@@ -57548,7 +57548,7 @@
       </c>
       <c r="AB252" t="inlineStr">
         <is>
-          <t>6511514898.0</t>
+          <t>6453383718.0</t>
         </is>
       </c>
       <c r="AC252" t="inlineStr">
@@ -57775,7 +57775,7 @@
       </c>
       <c r="AB253" t="inlineStr">
         <is>
-          <t>269333570.0</t>
+          <t>2577157901.0</t>
         </is>
       </c>
       <c r="AC253" t="inlineStr">
@@ -58002,7 +58002,7 @@
       </c>
       <c r="AB254" t="inlineStr">
         <is>
-          <t>364130996.0</t>
+          <t>95197681.0</t>
         </is>
       </c>
       <c r="AC254" t="inlineStr">
@@ -58229,7 +58229,7 @@
       </c>
       <c r="AB255" t="inlineStr">
         <is>
-          <t>925076828.0</t>
+          <t>374442512.0</t>
         </is>
       </c>
       <c r="AC255" t="inlineStr">
@@ -58456,7 +58456,7 @@
       </c>
       <c r="AB256" t="inlineStr">
         <is>
-          <t>10234118296.0</t>
+          <t>-22692785943.0</t>
         </is>
       </c>
       <c r="AC256" t="inlineStr">
@@ -58683,7 +58683,7 @@
       </c>
       <c r="AB257" t="inlineStr">
         <is>
-          <t>2519377734.0</t>
+          <t>2068788881.0</t>
         </is>
       </c>
       <c r="AC257" t="inlineStr">
@@ -58910,7 +58910,7 @@
       </c>
       <c r="AB258" t="inlineStr">
         <is>
-          <t>1370908875.0</t>
+          <t>368702334.0</t>
         </is>
       </c>
       <c r="AC258" t="inlineStr">
@@ -59092,7 +59092,7 @@
       </c>
       <c r="S259" t="inlineStr">
         <is>
-          <t>-2.98</t>
+          <t>-2.97</t>
         </is>
       </c>
       <c r="T259" t="inlineStr">
@@ -59137,7 +59137,7 @@
       </c>
       <c r="AB259" t="inlineStr">
         <is>
-          <t>108515170.0</t>
+          <t>38621900.0</t>
         </is>
       </c>
       <c r="AC259" t="inlineStr">
@@ -59364,7 +59364,7 @@
       </c>
       <c r="AB260" t="inlineStr">
         <is>
-          <t>157140722.0</t>
+          <t>277081074.0</t>
         </is>
       </c>
       <c r="AC260" t="inlineStr">
@@ -59591,7 +59591,7 @@
       </c>
       <c r="AB261" t="inlineStr">
         <is>
-          <t>386896739.0</t>
+          <t>358809471.0</t>
         </is>
       </c>
       <c r="AC261" t="inlineStr">
@@ -59818,7 +59818,7 @@
       </c>
       <c r="AB262" t="inlineStr">
         <is>
-          <t>257388180.0</t>
+          <t>491120882.0</t>
         </is>
       </c>
       <c r="AC262" t="inlineStr">
@@ -60045,7 +60045,7 @@
       </c>
       <c r="AB263" t="inlineStr">
         <is>
-          <t>448358462.0</t>
+          <t>431535621.0</t>
         </is>
       </c>
       <c r="AC263" t="inlineStr">
@@ -60272,7 +60272,7 @@
       </c>
       <c r="AB264" t="inlineStr">
         <is>
-          <t>21827705.0</t>
+          <t>-55236320.0</t>
         </is>
       </c>
       <c r="AC264" t="inlineStr">
@@ -60499,7 +60499,7 @@
       </c>
       <c r="AB265" t="inlineStr">
         <is>
-          <t>6865818.0</t>
+          <t>3400506.0</t>
         </is>
       </c>
       <c r="AC265" t="inlineStr">
@@ -60726,7 +60726,7 @@
       </c>
       <c r="AB266" t="inlineStr">
         <is>
-          <t>90400654.0</t>
+          <t>106239606.0</t>
         </is>
       </c>
       <c r="AC266" t="inlineStr">
@@ -60953,7 +60953,7 @@
       </c>
       <c r="AB267" t="inlineStr">
         <is>
-          <t>129958844.0</t>
+          <t>-4058294.0</t>
         </is>
       </c>
       <c r="AC267" t="inlineStr">
@@ -61180,7 +61180,7 @@
       </c>
       <c r="AB268" t="inlineStr">
         <is>
-          <t>53528495.0</t>
+          <t>28657739.0</t>
         </is>
       </c>
       <c r="AC268" t="inlineStr">
@@ -61407,7 +61407,7 @@
       </c>
       <c r="AB269" t="inlineStr">
         <is>
-          <t>79624597.0</t>
+          <t>-360761203.0</t>
         </is>
       </c>
       <c r="AC269" t="inlineStr">
@@ -61634,7 +61634,7 @@
       </c>
       <c r="AB270" t="inlineStr">
         <is>
-          <t>518278782.0</t>
+          <t>275898571.0</t>
         </is>
       </c>
       <c r="AC270" t="inlineStr">
@@ -61861,7 +61861,7 @@
       </c>
       <c r="AB271" t="inlineStr">
         <is>
-          <t>232697445.0</t>
+          <t>117448885.0</t>
         </is>
       </c>
       <c r="AC271" t="inlineStr">
@@ -62088,7 +62088,7 @@
       </c>
       <c r="AB272" t="inlineStr">
         <is>
-          <t>4999799052.0</t>
+          <t>1806291574.0</t>
         </is>
       </c>
       <c r="AC272" t="inlineStr">
@@ -62315,7 +62315,7 @@
       </c>
       <c r="AB273" t="inlineStr">
         <is>
-          <t>2033655940.0</t>
+          <t>3901696428.0</t>
         </is>
       </c>
       <c r="AC273" t="inlineStr">
@@ -62542,7 +62542,7 @@
       </c>
       <c r="AB274" t="inlineStr">
         <is>
-          <t>180454005.0</t>
+          <t>98402302.0</t>
         </is>
       </c>
       <c r="AC274" t="inlineStr">
@@ -62769,7 +62769,7 @@
       </c>
       <c r="AB275" t="inlineStr">
         <is>
-          <t>256010743.0</t>
+          <t>-46891551.0</t>
         </is>
       </c>
       <c r="AC275" t="inlineStr">
@@ -62996,7 +62996,7 @@
       </c>
       <c r="AB276" t="inlineStr">
         <is>
-          <t>2073145280.0</t>
+          <t>2682852783.0</t>
         </is>
       </c>
       <c r="AC276" t="inlineStr">
@@ -63223,7 +63223,7 @@
       </c>
       <c r="AB277" t="inlineStr">
         <is>
-          <t>569697591.0</t>
+          <t>1285896916.0</t>
         </is>
       </c>
       <c r="AC277" t="inlineStr">
@@ -63450,7 +63450,7 @@
       </c>
       <c r="AB278" t="inlineStr">
         <is>
-          <t>9483890934.0</t>
+          <t>1658869259.0</t>
         </is>
       </c>
       <c r="AC278" t="inlineStr">
@@ -63677,7 +63677,7 @@
       </c>
       <c r="AB279" t="inlineStr">
         <is>
-          <t>444422162.0</t>
+          <t>122539193.0</t>
         </is>
       </c>
       <c r="AC279" t="inlineStr">
@@ -63904,7 +63904,7 @@
       </c>
       <c r="AB280" t="inlineStr">
         <is>
-          <t>1608856531.0</t>
+          <t>2674909146.0</t>
         </is>
       </c>
       <c r="AC280" t="inlineStr">
@@ -64131,7 +64131,7 @@
       </c>
       <c r="AB281" t="inlineStr">
         <is>
-          <t>289182818.0</t>
+          <t>39427832.0</t>
         </is>
       </c>
       <c r="AC281" t="inlineStr">
@@ -64358,7 +64358,7 @@
       </c>
       <c r="AB282" t="inlineStr">
         <is>
-          <t>808729624.0</t>
+          <t>103370849.0</t>
         </is>
       </c>
       <c r="AC282" t="inlineStr">
@@ -64585,7 +64585,7 @@
       </c>
       <c r="AB283" t="inlineStr">
         <is>
-          <t>7962164534.0</t>
+          <t>7670173700.0</t>
         </is>
       </c>
       <c r="AC283" t="inlineStr">
@@ -64812,7 +64812,7 @@
       </c>
       <c r="AB284" t="inlineStr">
         <is>
-          <t>1239923456.0</t>
+          <t>2222501520.0</t>
         </is>
       </c>
       <c r="AC284" t="inlineStr">
@@ -65039,7 +65039,7 @@
       </c>
       <c r="AB285" t="inlineStr">
         <is>
-          <t>1218242458.0</t>
+          <t>883068292.0</t>
         </is>
       </c>
       <c r="AC285" t="inlineStr">
@@ -65266,7 +65266,7 @@
       </c>
       <c r="AB286" t="inlineStr">
         <is>
-          <t>413849790.0</t>
+          <t>452277037.0</t>
         </is>
       </c>
       <c r="AC286" t="inlineStr">
@@ -65493,7 +65493,7 @@
       </c>
       <c r="AB287" t="inlineStr">
         <is>
-          <t>40292934635.0</t>
+          <t>-23845844094.0</t>
         </is>
       </c>
       <c r="AC287" t="inlineStr">
@@ -65720,7 +65720,7 @@
       </c>
       <c r="AB288" t="inlineStr">
         <is>
-          <t>2061814549.0</t>
+          <t>5461010761.0</t>
         </is>
       </c>
       <c r="AC288" t="inlineStr">
@@ -65947,7 +65947,7 @@
       </c>
       <c r="AB289" t="inlineStr">
         <is>
-          <t>83419659.0</t>
+          <t>-15747435.0</t>
         </is>
       </c>
       <c r="AC289" t="inlineStr">
@@ -66174,7 +66174,7 @@
       </c>
       <c r="AB290" t="inlineStr">
         <is>
-          <t>206994332.0</t>
+          <t>377017436.0</t>
         </is>
       </c>
       <c r="AC290" t="inlineStr">
@@ -66401,7 +66401,7 @@
       </c>
       <c r="AB291" t="inlineStr">
         <is>
-          <t>10881916.0</t>
+          <t>171202.0</t>
         </is>
       </c>
       <c r="AC291" t="inlineStr">
@@ -66628,7 +66628,7 @@
       </c>
       <c r="AB292" t="inlineStr">
         <is>
-          <t>6811859755.0</t>
+          <t>12467661280.0</t>
         </is>
       </c>
       <c r="AC292" t="inlineStr">
@@ -66855,7 +66855,7 @@
       </c>
       <c r="AB293" t="inlineStr">
         <is>
-          <t>3563744002.0</t>
+          <t>1742790625.0</t>
         </is>
       </c>
       <c r="AC293" t="inlineStr">
@@ -67082,7 +67082,7 @@
       </c>
       <c r="AB294" t="inlineStr">
         <is>
-          <t>94958384.0</t>
+          <t>49434723.0</t>
         </is>
       </c>
       <c r="AC294" t="inlineStr">
@@ -67309,7 +67309,7 @@
       </c>
       <c r="AB295" t="inlineStr">
         <is>
-          <t>932752965.0</t>
+          <t>-376551933.0</t>
         </is>
       </c>
       <c r="AC295" t="inlineStr">
@@ -67536,7 +67536,7 @@
       </c>
       <c r="AB296" t="inlineStr">
         <is>
-          <t>78347907.0</t>
+          <t>36262755.0</t>
         </is>
       </c>
       <c r="AC296" t="inlineStr">
@@ -67763,7 +67763,7 @@
       </c>
       <c r="AB297" t="inlineStr">
         <is>
-          <t>-80543930.0</t>
+          <t>-306685376.0</t>
         </is>
       </c>
       <c r="AC297" t="inlineStr">
@@ -67990,7 +67990,7 @@
       </c>
       <c r="AB298" t="inlineStr">
         <is>
-          <t>-8395061.0</t>
+          <t>-33960436.0</t>
         </is>
       </c>
       <c r="AC298" t="inlineStr">
@@ -68217,7 +68217,7 @@
       </c>
       <c r="AB299" t="inlineStr">
         <is>
-          <t>9562670.0</t>
+          <t>-12082825.0</t>
         </is>
       </c>
       <c r="AC299" t="inlineStr">
@@ -68444,7 +68444,7 @@
       </c>
       <c r="AB300" t="inlineStr">
         <is>
-          <t>54413285.0</t>
+          <t>-56173767.0</t>
         </is>
       </c>
       <c r="AC300" t="inlineStr">
@@ -68671,7 +68671,7 @@
       </c>
       <c r="AB301" t="inlineStr">
         <is>
-          <t>-1383878.0</t>
+          <t>600676.0</t>
         </is>
       </c>
       <c r="AC301" t="inlineStr">
@@ -68898,7 +68898,7 @@
       </c>
       <c r="AB302" t="inlineStr">
         <is>
-          <t>338792835.0</t>
+          <t>-521167873.0</t>
         </is>
       </c>
       <c r="AC302" t="inlineStr">
@@ -69125,7 +69125,7 @@
       </c>
       <c r="AB303" t="inlineStr">
         <is>
-          <t>55503876.0</t>
+          <t>34699623.0</t>
         </is>
       </c>
       <c r="AC303" t="inlineStr">
@@ -69352,7 +69352,7 @@
       </c>
       <c r="AB304" t="inlineStr">
         <is>
-          <t>30939909.0</t>
+          <t>27156408.0</t>
         </is>
       </c>
       <c r="AC304" t="inlineStr">
@@ -69579,7 +69579,7 @@
       </c>
       <c r="AB305" t="inlineStr">
         <is>
-          <t>-25325026.0</t>
+          <t>86545602.0</t>
         </is>
       </c>
       <c r="AC305" t="inlineStr">
@@ -69806,7 +69806,7 @@
       </c>
       <c r="AB306" t="inlineStr">
         <is>
-          <t>148018731.0</t>
+          <t>-220410529.0</t>
         </is>
       </c>
       <c r="AC306" t="inlineStr">
@@ -70033,7 +70033,7 @@
       </c>
       <c r="AB307" t="inlineStr">
         <is>
-          <t>246095534.0</t>
+          <t>112558423.0</t>
         </is>
       </c>
       <c r="AC307" t="inlineStr">
@@ -70260,7 +70260,7 @@
       </c>
       <c r="AB308" t="inlineStr">
         <is>
-          <t>202982246.0</t>
+          <t>-307876735.0</t>
         </is>
       </c>
       <c r="AC308" t="inlineStr">
@@ -70487,7 +70487,7 @@
       </c>
       <c r="AB309" t="inlineStr">
         <is>
-          <t>2046336501.0</t>
+          <t>2812321990.0</t>
         </is>
       </c>
       <c r="AC309" t="inlineStr">
@@ -70714,7 +70714,7 @@
       </c>
       <c r="AB310" t="inlineStr">
         <is>
-          <t>57374131.0</t>
+          <t>71074099.0</t>
         </is>
       </c>
       <c r="AC310" t="inlineStr">
@@ -70941,7 +70941,7 @@
       </c>
       <c r="AB311" t="inlineStr">
         <is>
-          <t>529591719.0</t>
+          <t>1102338335.0</t>
         </is>
       </c>
       <c r="AC311" t="inlineStr">
@@ -71168,7 +71168,7 @@
       </c>
       <c r="AB312" t="inlineStr">
         <is>
-          <t>241579958.0</t>
+          <t>-140042301.0</t>
         </is>
       </c>
       <c r="AC312" t="inlineStr">
@@ -71395,7 +71395,7 @@
       </c>
       <c r="AB313" t="inlineStr">
         <is>
-          <t>1844446879.0</t>
+          <t>1127726596.0</t>
         </is>
       </c>
       <c r="AC313" t="inlineStr">
@@ -71622,7 +71622,7 @@
       </c>
       <c r="AB314" t="inlineStr">
         <is>
-          <t>19388088.0</t>
+          <t>8495607.0</t>
         </is>
       </c>
       <c r="AC314" t="inlineStr">
@@ -71849,7 +71849,7 @@
       </c>
       <c r="AB315" t="inlineStr">
         <is>
-          <t>61172163.0</t>
+          <t>65894826.0</t>
         </is>
       </c>
       <c r="AC315" t="inlineStr">
@@ -72076,7 +72076,7 @@
       </c>
       <c r="AB316" t="inlineStr">
         <is>
-          <t>-10376147.0</t>
+          <t>-30364467.0</t>
         </is>
       </c>
       <c r="AC316" t="inlineStr">
@@ -72303,7 +72303,7 @@
       </c>
       <c r="AB317" t="inlineStr">
         <is>
-          <t>179156892.0</t>
+          <t>-101942900.0</t>
         </is>
       </c>
       <c r="AC317" t="inlineStr">
@@ -72530,7 +72530,7 @@
       </c>
       <c r="AB318" t="inlineStr">
         <is>
-          <t>53554978.0</t>
+          <t>301555598.0</t>
         </is>
       </c>
       <c r="AC318" t="inlineStr">
@@ -72757,7 +72757,7 @@
       </c>
       <c r="AB319" t="inlineStr">
         <is>
-          <t>162998921.0</t>
+          <t>126224613.0</t>
         </is>
       </c>
       <c r="AC319" t="inlineStr">
@@ -72984,7 +72984,7 @@
       </c>
       <c r="AB320" t="inlineStr">
         <is>
-          <t>14804408.0</t>
+          <t>11351481.0</t>
         </is>
       </c>
       <c r="AC320" t="inlineStr">
@@ -73211,7 +73211,7 @@
       </c>
       <c r="AB321" t="inlineStr">
         <is>
-          <t>26381229.0</t>
+          <t>9299626.0</t>
         </is>
       </c>
       <c r="AC321" t="inlineStr">
@@ -73438,7 +73438,7 @@
       </c>
       <c r="AB322" t="inlineStr">
         <is>
-          <t>14998901.0</t>
+          <t>9285543.0</t>
         </is>
       </c>
       <c r="AC322" t="inlineStr">
@@ -73665,7 +73665,7 @@
       </c>
       <c r="AB323" t="inlineStr">
         <is>
-          <t>26138997.0</t>
+          <t>65161673.0</t>
         </is>
       </c>
       <c r="AC323" t="inlineStr">
@@ -73892,7 +73892,7 @@
       </c>
       <c r="AB324" t="inlineStr">
         <is>
-          <t>-737101208.0</t>
+          <t>-1911962830.0</t>
         </is>
       </c>
       <c r="AC324" t="inlineStr">
@@ -74119,7 +74119,7 @@
       </c>
       <c r="AB325" t="inlineStr">
         <is>
-          <t>28399987.0</t>
+          <t>25676392.0</t>
         </is>
       </c>
       <c r="AC325" t="inlineStr">
@@ -74346,7 +74346,7 @@
       </c>
       <c r="AB326" t="inlineStr">
         <is>
-          <t>258142775.0</t>
+          <t>417580161.0</t>
         </is>
       </c>
       <c r="AC326" t="inlineStr">
